--- a/data/trans_dic/P57_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Clase-trans_dic.xlsx
@@ -612,13 +612,13 @@
         <v>0.1360028588382318</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.114387140179986</v>
+        <v>0.1143871401799861</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1129355974980916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09119460975442223</v>
+        <v>0.09119460975442222</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1256950794020965</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1017510010630536</v>
+        <v>0.1023066141595759</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08915664413666993</v>
+        <v>0.0899746724652695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08013655686240302</v>
+        <v>0.07906026639658273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07142858364385375</v>
+        <v>0.06935833075142418</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.102133065441709</v>
+        <v>0.09956349547937596</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08701794053308522</v>
+        <v>0.08505228802926865</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.171565263118851</v>
+        <v>0.1713412866473988</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1468500612900487</v>
+        <v>0.1497376461223032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1501436254780921</v>
+        <v>0.1487248974129327</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1196972677800671</v>
+        <v>0.1164532142696346</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.151909213538846</v>
+        <v>0.1515551798228363</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1218991164181274</v>
+        <v>0.1231657092874718</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.1456138586779799</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1263089526108278</v>
+        <v>0.1263089526108279</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.134194069836884</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09133736713485759</v>
+        <v>0.09278360052561722</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07167427513557334</v>
+        <v>0.07238654174873912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1087477396555395</v>
+        <v>0.1098404208284239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1010004687872493</v>
+        <v>0.1010011421605414</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.110905985232083</v>
+        <v>0.1090655533535422</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0927845368941522</v>
+        <v>0.09435371333029979</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1579312478398633</v>
+        <v>0.16181006467388</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1232924731889502</v>
+        <v>0.1275537932290529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1866198756047547</v>
+        <v>0.1879864443884255</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1549184055890854</v>
+        <v>0.1574546579355597</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1632010841034358</v>
+        <v>0.1605434771140733</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1317406875468892</v>
+        <v>0.1331230889540935</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.2425064288915514</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1552349480842386</v>
+        <v>0.1552349480842387</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1854884565150194</v>
+        <v>0.1876979838530775</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1152623665306489</v>
+        <v>0.1162751580231718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2273268602738997</v>
+        <v>0.226933191027799</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1400650856999991</v>
+        <v>0.1433534084011036</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2081249822715665</v>
+        <v>0.2088397280641288</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.131444578933467</v>
+        <v>0.1310672960803989</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2601566858057707</v>
+        <v>0.2608436710369897</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1825634912550191</v>
+        <v>0.1767658874702339</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3842865031133101</v>
+        <v>0.3839259996620689</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2336858590644621</v>
+        <v>0.2334178109476236</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2746144025743384</v>
+        <v>0.2765003328289702</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1840995239557428</v>
+        <v>0.1824378460729776</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.1888290213683016</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1457610367520133</v>
+        <v>0.1457610367520134</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2065707585266284</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1675340351409104</v>
+        <v>0.1661670598680208</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1252624161915263</v>
+        <v>0.1275903126179708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1771356665658187</v>
+        <v>0.1791748786755476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1056954628665614</v>
+        <v>0.1063590421404045</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1796762068989817</v>
+        <v>0.1797123491535861</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1229302303581485</v>
+        <v>0.1222189925107492</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.214246092483335</v>
+        <v>0.212619268599354</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1671687557039397</v>
+        <v>0.1667288657371867</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2356346128366448</v>
+        <v>0.2343307294697816</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1441924004717425</v>
+        <v>0.1446093144573809</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2169535597558171</v>
+        <v>0.2166265906155742</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1508500251814894</v>
+        <v>0.1497723940438686</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.2972590472900391</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2296037305540791</v>
+        <v>0.229603730554079</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2397714321321653</v>
+        <v>0.2378770155832906</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1612227950215428</v>
+        <v>0.1586665065057088</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2838893659965507</v>
+        <v>0.280015789290286</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2299638409567137</v>
+        <v>0.2306161819082002</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2724250769009021</v>
+        <v>0.2727661872214581</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2112858910946123</v>
+        <v>0.2119649224888447</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3112133041006195</v>
+        <v>0.3116952547635549</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2271699253239373</v>
+        <v>0.2274931310002495</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3528365070185987</v>
+        <v>0.3490116936330614</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2782043175756582</v>
+        <v>0.2801836196902384</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3231206557740268</v>
+        <v>0.3236891900893542</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2509406367474118</v>
+        <v>0.2515895189676388</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03709742671410662</v>
+        <v>0.03790516951481857</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02491141297044859</v>
+        <v>0.02514284269817105</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.233819920390406</v>
+        <v>0.2327770824310119</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1960397474401979</v>
+        <v>0.1975471621172064</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1973967550779116</v>
+        <v>0.195695281946778</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1622714723777788</v>
+        <v>0.1626540834710776</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1013134101934208</v>
+        <v>0.09905600424151084</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09609714139603252</v>
+        <v>0.09183125867884029</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2903189933284889</v>
+        <v>0.2894929944554293</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.247306498831679</v>
+        <v>0.2469027969137919</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2441168410241353</v>
+        <v>0.2426088337309781</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2058233815328326</v>
+        <v>0.2068630236864759</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.2106118645424452</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.1553931854402471</v>
+        <v>0.155393185440247</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1728356952993715</v>
+        <v>0.1713636555256012</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.123010854547627</v>
+        <v>0.1237250309380679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2200874344680354</v>
+        <v>0.2214519541314366</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1655057889715751</v>
+        <v>0.1640364872588281</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2005789071235174</v>
+        <v>0.2000493362554257</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1479334452946822</v>
+        <v>0.1471714382794747</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1998177222488924</v>
+        <v>0.1987641924750967</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1469421033985327</v>
+        <v>0.1464102686672546</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2512646064471805</v>
+        <v>0.2500198221069279</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1854746619810149</v>
+        <v>0.186531067486151</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2204897052293136</v>
+        <v>0.2203884337761786</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1635034500124303</v>
+        <v>0.1631730597074234</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>43462</v>
+        <v>43699</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>49091</v>
+        <v>49542</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27652</v>
+        <v>27281</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>34806</v>
+        <v>33797</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>78868</v>
+        <v>76884</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>90316</v>
+        <v>88276</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>73282</v>
+        <v>73187</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>80858</v>
+        <v>82448</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>51809</v>
+        <v>51320</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58326</v>
+        <v>56745</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>117305</v>
+        <v>117032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>126519</v>
+        <v>127833</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34232</v>
+        <v>34774</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34586</v>
+        <v>34930</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>40128</v>
+        <v>40531</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>42569</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>82489</v>
+        <v>81121</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>83879</v>
+        <v>85297</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59190</v>
+        <v>60643</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>59494</v>
+        <v>61550</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>68862</v>
+        <v>69366</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>65293</v>
+        <v>66362</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>121385</v>
+        <v>119409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>119095</v>
+        <v>120345</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>96265</v>
+        <v>97411</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>54359</v>
+        <v>54837</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37413</v>
+        <v>37348</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26262</v>
+        <v>26878</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>142265</v>
+        <v>142754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>86636</v>
+        <v>86388</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>135016</v>
+        <v>135372</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>86099</v>
+        <v>83365</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>63245</v>
+        <v>63186</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43815</v>
+        <v>43765</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>187715</v>
+        <v>189004</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>121342</v>
+        <v>120246</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>191906</v>
+        <v>190340</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>140985</v>
+        <v>143606</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>146110</v>
+        <v>147792</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>90544</v>
+        <v>91112</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>354021</v>
+        <v>354092</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>243668</v>
+        <v>242258</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>245414</v>
+        <v>243550</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>188152</v>
+        <v>187657</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>194363</v>
+        <v>193288</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>123522</v>
+        <v>123879</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>427469</v>
+        <v>426825</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>299010</v>
+        <v>296874</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>148319</v>
+        <v>147147</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>91154</v>
+        <v>89709</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>208952</v>
+        <v>206101</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>190065</v>
+        <v>190605</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>369032</v>
+        <v>369494</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>294087</v>
+        <v>295032</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>192511</v>
+        <v>192809</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>128440</v>
+        <v>128623</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>259699</v>
+        <v>256884</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>229936</v>
+        <v>231572</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>437705</v>
+        <v>438475</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>349282</v>
+        <v>350185</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10652</v>
+        <v>10884</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5910</v>
+        <v>5965</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>251504</v>
+        <v>250383</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>163869</v>
+        <v>165129</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>269008</v>
+        <v>266689</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>174138</v>
+        <v>174548</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>29092</v>
+        <v>28443</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22797</v>
+        <v>21785</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>312277</v>
+        <v>311388</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>206723</v>
+        <v>206385</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>332677</v>
+        <v>330622</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>220874</v>
+        <v>221990</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>582820</v>
+        <v>577856</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>422286</v>
+        <v>424737</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>773642</v>
+        <v>778438</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>598351</v>
+        <v>593039</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1381439</v>
+        <v>1377792</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1042665</v>
+        <v>1037294</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>673806</v>
+        <v>670254</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>504440</v>
+        <v>502614</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>883235</v>
+        <v>878859</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>670544</v>
+        <v>674364</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1518570</v>
+        <v>1517873</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1152406</v>
+        <v>1150077</v>
       </c>
     </row>
     <row r="32">
